--- a/analysis/figures/area_biomass_summary_table.xlsx
+++ b/analysis/figures/area_biomass_summary_table.xlsx
@@ -1,88 +1,91 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\dev\AgavePrediction\analysis\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{83F729FA-2A11-47BA-8B3A-59E0FFE9F73E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{48D62B17-4820-4D84-96E6-152BD7B8CBE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29280" yWindow="1605" windowWidth="21465" windowHeight="14310"/>
+    <workbookView xWindow="5130" yWindow="8145" windowWidth="22395" windowHeight="11400"/>
   </bookViews>
   <sheets>
     <sheet name="area_biomass_summary" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="13">
   <si>
-    <t>growing_area</t>
+    <t>All</t>
   </si>
   <si>
-    <t>growing_area_gt3</t>
+    <t>Yield &gt; 3Mg/ha/y</t>
   </si>
   <si>
-    <t>growing_area_gt10</t>
+    <t>Yield &gt; 10 Mg/ha/y</t>
   </si>
   <si>
-    <t>biomass</t>
+    <t>Irrigated</t>
   </si>
   <si>
-    <t>biomass_gt3</t>
+    <t>Rock Mulch</t>
   </si>
   <si>
-    <t>biomass_gt10</t>
+    <t>Rock Mulch in Arid Regions</t>
   </si>
   <si>
-    <t>climate</t>
+    <t>Rainfed</t>
   </si>
   <si>
-    <t>management</t>
+    <t>Current</t>
   </si>
   <si>
-    <t>1980-2010</t>
+    <t xml:space="preserve">+ 4°C </t>
   </si>
   <si>
-    <t>+4C</t>
+    <t xml:space="preserve">Climate </t>
   </si>
   <si>
-    <t>1980-2011</t>
-  </si>
-  <si>
-    <t>1980-2012</t>
-  </si>
-  <si>
-    <t>rainfed</t>
-  </si>
-  <si>
-    <t>irrigated</t>
-  </si>
-  <si>
-    <t>rock mulch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">all </t>
-  </si>
-  <si>
-    <t>&gt; 3 Mg/ha/y</t>
-  </si>
-  <si>
-    <t>&gt; 10 Mg/ha/y</t>
+    <t>Water Management</t>
   </si>
   <si>
     <r>
-      <t>Total Biomass (10</t>
+      <t>Growing Area (x 10</t>
     </r>
     <r>
       <rPr>
-        <u/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ha)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Total Biomass (x 10</t>
+    </r>
+    <r>
+      <rPr>
         <vertAlign val="superscript"/>
         <sz val="11"/>
         <color theme="1"/>
@@ -94,42 +97,13 @@
     </r>
     <r>
       <rPr>
-        <u/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Mg)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Growing Area (10</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ha)</t>
+      <t xml:space="preserve"> Mg/y)</t>
     </r>
   </si>
 </sst>
@@ -137,10 +111,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="0.0"/>
-  </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,21 +247,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <vertAlign val="superscript"/>
       <sz val="11"/>
       <color theme="1"/>
@@ -649,26 +605,21 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1025,574 +976,405 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L9"/>
+  <dimension ref="A2:H22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="E4:K9"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.28515625" style="2" customWidth="1"/>
-    <col min="5" max="7" width="12" style="2" customWidth="1"/>
-    <col min="8" max="8" width="2.28515625" style="2" customWidth="1"/>
-    <col min="9" max="11" width="12" style="2" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="2"/>
+    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="8" width="16.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="E2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+    <row r="2" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="7">
+        <v>61.204493173133599</v>
+      </c>
+      <c r="D4" s="7">
+        <v>53.785908407386401</v>
+      </c>
+      <c r="E4" s="7">
+        <v>27.327516331752999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="7">
+        <v>64.242598848534101</v>
+      </c>
+      <c r="D5" s="7">
+        <v>55.7583805225172</v>
+      </c>
+      <c r="E5" s="7">
+        <v>27.307721232578501</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="7">
+        <v>76.654722884233209</v>
+      </c>
+      <c r="D6" s="7">
+        <v>76.577675112155703</v>
+      </c>
+      <c r="E6" s="7">
+        <v>73.322663388406099</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="7">
+        <v>80.354884430324304</v>
+      </c>
+      <c r="D7" s="7">
+        <v>80.292624018860209</v>
+      </c>
+      <c r="E7" s="7">
+        <v>77.267369024596704</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="7">
+        <v>66.414886740847805</v>
+      </c>
+      <c r="D8" s="7">
+        <v>60.597189245591096</v>
+      </c>
+      <c r="E8" s="7">
+        <v>33.957259704817801</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="7">
+        <v>70.182804388405202</v>
+      </c>
+      <c r="D9" s="7">
+        <v>64.064217391025295</v>
+      </c>
+      <c r="E9" s="7">
+        <v>35.334318807901596</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="7">
+        <v>48.654822924107798</v>
+      </c>
+      <c r="D10" s="7">
+        <v>41.2696867984344</v>
+      </c>
+      <c r="E10" s="7">
+        <v>16.107154536307199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="8">
+        <v>51.774245289088597</v>
+      </c>
+      <c r="D11" s="8">
+        <v>43.306563396870501</v>
+      </c>
+      <c r="E11" s="8">
+        <v>16.168236803480099</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="7">
-        <v>61.204493173133599</v>
-      </c>
-      <c r="F4" s="7">
-        <v>53.785908407386401</v>
-      </c>
-      <c r="G4" s="7">
-        <v>27.327516331752999</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="7">
         <v>55.652663007561799</v>
       </c>
-      <c r="J4" s="7">
+      <c r="D15" s="7">
         <v>54.4762667652057</v>
       </c>
-      <c r="K4" s="7">
+      <c r="E15" s="7">
         <v>36.651740704829102</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="7">
-        <v>64.242598848534101</v>
-      </c>
-      <c r="F5" s="7">
-        <v>55.7583805225172</v>
-      </c>
-      <c r="G5" s="7">
-        <v>27.307721232578501</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="7">
         <v>57.143518528397905</v>
       </c>
-      <c r="J5" s="7">
+      <c r="D16" s="7">
         <v>55.847223171705899</v>
       </c>
-      <c r="K5" s="7">
+      <c r="E16" s="7">
         <v>36.441256330825802</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="7">
-        <v>76.654722884233209</v>
-      </c>
-      <c r="F6" s="7">
-        <v>76.577675112155703</v>
-      </c>
-      <c r="G6" s="7">
-        <v>73.322663388406099</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="7">
         <v>107.76745198897501</v>
       </c>
-      <c r="J6" s="7">
+      <c r="D17" s="7">
         <v>107.754986977878</v>
       </c>
-      <c r="K6" s="7">
+      <c r="E17" s="7">
         <v>105.03430833288</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="7">
-        <v>80.354884430324304</v>
-      </c>
-      <c r="F7" s="7">
-        <v>80.292624018860209</v>
-      </c>
-      <c r="G7" s="7">
-        <v>77.267369024596704</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="7">
         <v>111.74437755232401</v>
       </c>
-      <c r="J7" s="7">
+      <c r="D18" s="7">
         <v>111.73222713875799</v>
       </c>
-      <c r="K7" s="7">
+      <c r="E18" s="7">
         <v>109.18379980530599</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="7">
-        <v>66.414886740847805</v>
-      </c>
-      <c r="F8" s="7">
-        <v>60.597189245591096</v>
-      </c>
-      <c r="G8" s="7">
-        <v>33.957259704817801</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="7">
         <v>65.746101838236299</v>
       </c>
-      <c r="J8" s="7">
+      <c r="D19" s="7">
         <v>64.857917346105907</v>
       </c>
-      <c r="K8" s="7">
+      <c r="E19" s="7">
         <v>46.335116896344104</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="7">
-        <v>70.182804388405202</v>
-      </c>
-      <c r="F9" s="7">
-        <v>64.064217391025295</v>
-      </c>
-      <c r="G9" s="7">
-        <v>35.334318807901596</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="7">
         <v>68.403599756999597</v>
       </c>
-      <c r="J9" s="7">
+      <c r="D20" s="7">
         <v>67.451839341453294</v>
       </c>
-      <c r="K9" s="7">
+      <c r="E20" s="7">
         <v>47.759988773112603</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="7">
+        <v>37.9528695608888</v>
+      </c>
+      <c r="D21" s="7">
+        <v>36.782411629694195</v>
+      </c>
+      <c r="E21" s="7">
+        <v>19.966985729190103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="8">
+        <v>39.640276368117206</v>
+      </c>
+      <c r="D22" s="8">
+        <v>38.347174960242896</v>
+      </c>
+      <c r="E22" s="8">
+        <v>19.9961326022569</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <conditionalFormatting sqref="C4:E11">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{33FA000F-DCF5-424F-842D-E6EE6C596EF6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:E22">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9538CB96-8577-4BC0-81A3-9FD17E547F86}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:N7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2">
-        <v>61204493.173133597</v>
-      </c>
-      <c r="D2">
-        <v>53785908.4073864</v>
-      </c>
-      <c r="E2">
-        <v>27327516.331753001</v>
-      </c>
-      <c r="F2">
-        <v>55652663007.561798</v>
-      </c>
-      <c r="G2">
-        <v>54476266765.205704</v>
-      </c>
-      <c r="H2">
-        <v>36651740704.829102</v>
-      </c>
-      <c r="I2">
-        <f>C2/1000000</f>
-        <v>61.204493173133599</v>
-      </c>
-      <c r="J2">
-        <f>D2/1000000</f>
-        <v>53.785908407386401</v>
-      </c>
-      <c r="K2">
-        <f>E2/1000000</f>
-        <v>27.327516331752999</v>
-      </c>
-      <c r="L2">
-        <f>F2/1000000000</f>
-        <v>55.652663007561799</v>
-      </c>
-      <c r="M2">
-        <f>G2/1000000000</f>
-        <v>54.4762667652057</v>
-      </c>
-      <c r="N2">
-        <f>H2/1000000000</f>
-        <v>36.651740704829102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3">
-        <v>64242598.8485341</v>
-      </c>
-      <c r="D3">
-        <v>55758380.522517197</v>
-      </c>
-      <c r="E3">
-        <v>27307721.232578501</v>
-      </c>
-      <c r="F3">
-        <v>57143518528.397903</v>
-      </c>
-      <c r="G3">
-        <v>55847223171.705902</v>
-      </c>
-      <c r="H3">
-        <v>36441256330.825798</v>
-      </c>
-      <c r="I3">
-        <f t="shared" ref="I3:K7" si="0">C3/1000000</f>
-        <v>64.242598848534101</v>
-      </c>
-      <c r="J3">
-        <f t="shared" si="0"/>
-        <v>55.7583805225172</v>
-      </c>
-      <c r="K3">
-        <f t="shared" si="0"/>
-        <v>27.307721232578501</v>
-      </c>
-      <c r="L3">
-        <f t="shared" ref="L3:N7" si="1">F3/1000000000</f>
-        <v>57.143518528397905</v>
-      </c>
-      <c r="M3">
-        <f t="shared" si="1"/>
-        <v>55.847223171705899</v>
-      </c>
-      <c r="N3">
-        <f t="shared" si="1"/>
-        <v>36.441256330825802</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4">
-        <v>76654722.884233207</v>
-      </c>
-      <c r="D4">
-        <v>76577675.112155706</v>
-      </c>
-      <c r="E4">
-        <v>73322663.388406098</v>
-      </c>
-      <c r="F4">
-        <v>107767451988.97501</v>
-      </c>
-      <c r="G4">
-        <v>107754986977.87801</v>
-      </c>
-      <c r="H4">
-        <v>105034308332.88</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="0"/>
-        <v>76.654722884233209</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="0"/>
-        <v>76.577675112155703</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="0"/>
-        <v>73.322663388406099</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="1"/>
-        <v>107.76745198897501</v>
-      </c>
-      <c r="M4">
-        <f t="shared" si="1"/>
-        <v>107.754986977878</v>
-      </c>
-      <c r="N4">
-        <f t="shared" si="1"/>
-        <v>105.03430833288</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5">
-        <v>80354884.430324301</v>
-      </c>
-      <c r="D5">
-        <v>80292624.018860206</v>
-      </c>
-      <c r="E5">
-        <v>77267369.024596706</v>
-      </c>
-      <c r="F5">
-        <v>111744377552.32401</v>
-      </c>
-      <c r="G5">
-        <v>111732227138.758</v>
-      </c>
-      <c r="H5">
-        <v>109183799805.306</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="0"/>
-        <v>80.354884430324304</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="0"/>
-        <v>80.292624018860209</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="0"/>
-        <v>77.267369024596704</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="1"/>
-        <v>111.74437755232401</v>
-      </c>
-      <c r="M5">
-        <f t="shared" si="1"/>
-        <v>111.73222713875799</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="1"/>
-        <v>109.18379980530599</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6">
-        <v>66414886.740847804</v>
-      </c>
-      <c r="D6">
-        <v>60597189.245591097</v>
-      </c>
-      <c r="E6">
-        <v>33957259.704817802</v>
-      </c>
-      <c r="F6">
-        <v>65746101838.236298</v>
-      </c>
-      <c r="G6">
-        <v>64857917346.105904</v>
-      </c>
-      <c r="H6">
-        <v>46335116896.344101</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="0"/>
-        <v>66.414886740847805</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="0"/>
-        <v>60.597189245591096</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="0"/>
-        <v>33.957259704817801</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="1"/>
-        <v>65.746101838236299</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="1"/>
-        <v>64.857917346105907</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="1"/>
-        <v>46.335116896344104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7">
-        <v>70182804.388405204</v>
-      </c>
-      <c r="D7">
-        <v>64064217.391025297</v>
-      </c>
-      <c r="E7">
-        <v>35334318.807901599</v>
-      </c>
-      <c r="F7">
-        <v>68403599756.999603</v>
-      </c>
-      <c r="G7">
-        <v>67451839341.4533</v>
-      </c>
-      <c r="H7">
-        <v>47759988773.112602</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="0"/>
-        <v>70.182804388405202</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="0"/>
-        <v>64.064217391025295</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="0"/>
-        <v>35.334318807901596</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="1"/>
-        <v>68.403599756999597</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="1"/>
-        <v>67.451839341453294</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="1"/>
-        <v>47.759988773112603</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{33FA000F-DCF5-424F-842D-E6EE6C596EF6}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C4:E11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9538CB96-8577-4BC0-81A3-9FD17E547F86}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C15:E22</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>